--- a/biology/Biologie cellulaire et moléculaire/Microvillosité/Microvillosité.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Microvillosité/Microvillosité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Microvillosit%C3%A9</t>
+          <t>Microvillosité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les microvillosités sont de fins prolongements cellulaires de forme cylindrique d'environ 1 à 2 micromètres de longueur et localisées sur des cellules épithéliales. Elles se situent au pôle apical de la cellule (extrémité cellulaire vers le milieu extérieur, s'oppose au pôle basal), et servent à absorber des substances.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Microvillosit%C3%A9</t>
+          <t>Microvillosité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure et organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elles sont environ 60 par micromètre carré d'épithélium et forment ainsi une bordure en brosse ou un plateau strié.
 Des filaments partent de leur extrémité pour former un revêtement sur l'épithélium, le glycocalyx.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Microvillosit%C3%A9</t>
+          <t>Microvillosité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce type de structure permet une optimisation de la surface d'échange impliquée dans le processus d'absorption sans pour autant augmenter le volume cellulaire.
 La membrane plasmique des microvillosités montre en effet, une concentration particulière de certaines protéines favorisant les mécanismes d'absorption moléculaire, notamment :
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Microvillosit%C3%A9</t>
+          <t>Microvillosité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cours étudiant de PACES[source insuffisante].</t>
         </is>
